--- a/Web4/BlendedAPI/vyzva/Server/Excels/StudySmall.xlsx
+++ b/Web4/BlendedAPI/vyzva/Server/Excels/StudySmall.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Přehled" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="all">data!$A$1:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="342" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,26 +31,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Licenční klíče Správce školy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Studijní skupina</t>
+  </si>
+  <si>
+    <t>Kurz</t>
+  </si>
+  <si>
+    <t>Fáze výuky</t>
+  </si>
+  <si>
+    <t>Celkový součet</t>
+  </si>
+  <si>
+    <t>Celkem Počet</t>
+  </si>
+  <si>
+    <t>Počet</t>
+  </si>
+  <si>
+    <t>Celkem Procent</t>
+  </si>
+  <si>
+    <t>Procent</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,9 +96,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -87,6 +122,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="pavel pz." refreshedDate="42259.874572685185" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+  <cacheSource type="worksheet">
+    <worksheetSource name="all"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Student" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Studijní skupina" numFmtId="0">
+      <sharedItems count="2">
+        <s v="sss"/>
+        <s v="Pokročilí1 - 3.A (2015/2016) (učitel Pavel Zika)" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Kurz" numFmtId="0">
+      <sharedItems count="2">
+        <s v="sss"/>
+        <s v="English" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Fáze výuky" numFmtId="0">
+      <sharedItems count="2">
+        <s v="sss"/>
+        <s v="4. hotova část A" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Kontingenční tabulka 2" cacheId="342" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Hodnoty" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B10:F14" firstHeaderRow="0" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Počet" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Procent" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="2" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,25 +497,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B10:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>